--- a/Energy_src_parameters_2019.xlsx
+++ b/Energy_src_parameters_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/Omat_Tiedostot/Energy_Fact_Sheets/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/Omat_Tiedostot/Energy_Fact_Sheets/LCOE_Play/NPV_Play/Viite_Package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A98676-2246-4247-A468-CB39F732739A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7731F6-A617-5A4A-9493-54B4EDD2DEAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="27600" windowHeight="13900" tabRatio="993" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="27600" windowHeight="13900" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters ATB" sheetId="1" r:id="rId1"/>
@@ -3921,8 +3921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8EBDBC-81F4-3748-B90C-5E2EE6D4EE61}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4039,7 +4039,7 @@
         <v>590</v>
       </c>
       <c r="J3">
-        <v>1.9</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4678,7 +4678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F73429E-2DDB-C44A-BAA3-76127AF89049}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20:J21"/>
     </sheetView>
   </sheetViews>
@@ -5437,7 +5437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BA18D3-E12B-754E-B935-B009D4778314}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -7037,7 +7037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3472430D-A020-F641-98F5-5436D2F3A93D}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>

--- a/Energy_src_parameters_2019.xlsx
+++ b/Energy_src_parameters_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/Omat_Tiedostot/Energy_Fact_Sheets/LCOE_Play/NPV_Play/Viite_Package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7731F6-A617-5A4A-9493-54B4EDD2DEAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB008D1-7E70-E840-8EC8-AC22FFB9262C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="27600" windowHeight="13900" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="27600" windowHeight="13900" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters ATB" sheetId="1" r:id="rId1"/>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,7 +807,7 @@
         <v>630.63063063063055</v>
       </c>
       <c r="J3">
-        <v>3200</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1562,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -2331,7 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -3921,7 +3921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8EBDBC-81F4-3748-B90C-5E2EE6D4EE61}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
